--- a/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/cnn/cnn_Model loss accuracy_data.xlsx
+++ b/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/cnn/cnn_Model loss accuracy_data.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3876830041408539</v>
+        <v>0.3565496504306793</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8303614258766174</v>
+        <v>0.8454801440238953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3480887115001678</v>
+        <v>0.2949677109718323</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8773282170295715</v>
+        <v>0.8872785568237305</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2058873623609543</v>
+        <v>0.2095986902713776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9225702881813049</v>
+        <v>0.9196698069572449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3397208452224731</v>
+        <v>0.2848615050315857</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8876043558120728</v>
+        <v>0.8852657079696655</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1127758100628853</v>
+        <v>0.119739718735218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.958554208278656</v>
+        <v>0.9540970325469971</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4309556484222412</v>
+        <v>0.3252832889556885</v>
       </c>
       <c r="E4" t="n">
-        <v>0.873474657535553</v>
+        <v>0.8953301310539246</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06608377397060394</v>
+        <v>0.0651935338973999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9784739017486572</v>
+        <v>0.9756392240524292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5347291231155396</v>
+        <v>0.4186062812805176</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8792549967765808</v>
+        <v>0.8925120830535889</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03491917252540588</v>
+        <v>0.04224284365773201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9882730841636658</v>
+        <v>0.9855043292045593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6400198340415955</v>
+        <v>0.4721437394618988</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8850353360176086</v>
+        <v>0.8953301310539246</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02613317221403122</v>
+        <v>0.02363354526460171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9908433556556702</v>
+        <v>0.9925508499145508</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7728509306907654</v>
+        <v>0.5474900603294373</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8747591376304626</v>
+        <v>0.8953301310539246</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02563456259667873</v>
+        <v>0.01645788736641407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9932529926300049</v>
+        <v>0.9952687621116638</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6474956870079041</v>
+        <v>0.6233782172203064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8824662566184998</v>
+        <v>0.8921095132827759</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01341576594859362</v>
+        <v>0.01704126223921776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9961445927619934</v>
+        <v>0.9959734082221985</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7589216232299805</v>
+        <v>0.5777242183685303</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8779704570770264</v>
+        <v>0.8909017443656921</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005146453622728586</v>
+        <v>0.01799643784761429</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988754987716675</v>
+        <v>0.9945641160011292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9159538745880127</v>
+        <v>0.6017245054244995</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8792549967765808</v>
+        <v>0.8953301310539246</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01326283439993858</v>
+        <v>0.02094004116952419</v>
       </c>
       <c r="C11" t="n">
-        <v>0.997750997543335</v>
+        <v>0.9943627715110779</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8540554046630859</v>
+        <v>0.5559781193733215</v>
       </c>
       <c r="E11" t="n">
-        <v>0.873474657535553</v>
+        <v>0.8965378403663635</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01197338383644819</v>
+        <v>0.0164321530610323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9975903630256653</v>
+        <v>0.995772123336792</v>
       </c>
       <c r="D12" t="n">
-        <v>0.889994204044342</v>
+        <v>0.6201901435852051</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8798972368240356</v>
+        <v>0.8917069435119629</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007739474065601826</v>
+        <v>0.006789816077798605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9987148642539978</v>
+        <v>0.9980874061584473</v>
       </c>
       <c r="D13" t="n">
-        <v>1.017291665077209</v>
+        <v>0.6714788675308228</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8754014372825623</v>
+        <v>0.8985507488250732</v>
       </c>
     </row>
   </sheetData>

--- a/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/cnn/cnn_Model loss accuracy_data.xlsx
+++ b/数据挖掘实战-cnn cnn_bilstm bilstm bp神经网络 情感分析 影响因果分析/cnn/cnn_Model loss accuracy_data.xlsx
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3565496504306793</v>
+        <v>0.3876830041408539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8454801440238953</v>
+        <v>0.8303614258766174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2949677109718323</v>
+        <v>0.3480887115001678</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8872785568237305</v>
+        <v>0.8773282170295715</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2095986902713776</v>
+        <v>0.2058873623609543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9196698069572449</v>
+        <v>0.9225702881813049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2848615050315857</v>
+        <v>0.3397208452224731</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8852657079696655</v>
+        <v>0.8876043558120728</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.119739718735218</v>
+        <v>0.1127758100628853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9540970325469971</v>
+        <v>0.958554208278656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3252832889556885</v>
+        <v>0.4309556484222412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8953301310539246</v>
+        <v>0.873474657535553</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0651935338973999</v>
+        <v>0.06608377397060394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9756392240524292</v>
+        <v>0.9784739017486572</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4186062812805176</v>
+        <v>0.5347291231155396</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8925120830535889</v>
+        <v>0.8792549967765808</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04224284365773201</v>
+        <v>0.03491917252540588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9855043292045593</v>
+        <v>0.9882730841636658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4721437394618988</v>
+        <v>0.6400198340415955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8953301310539246</v>
+        <v>0.8850353360176086</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02363354526460171</v>
+        <v>0.02613317221403122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9925508499145508</v>
+        <v>0.9908433556556702</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5474900603294373</v>
+        <v>0.7728509306907654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8953301310539246</v>
+        <v>0.8747591376304626</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01645788736641407</v>
+        <v>0.02563456259667873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9952687621116638</v>
+        <v>0.9932529926300049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6233782172203064</v>
+        <v>0.6474956870079041</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8921095132827759</v>
+        <v>0.8824662566184998</v>
       </c>
     </row>
     <row r="9">
@@ -584,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01704126223921776</v>
+        <v>0.01341576594859362</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9959734082221985</v>
+        <v>0.9961445927619934</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5777242183685303</v>
+        <v>0.7589216232299805</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8909017443656921</v>
+        <v>0.8779704570770264</v>
       </c>
     </row>
     <row r="10">
@@ -601,16 +601,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01799643784761429</v>
+        <v>0.005146453622728586</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9945641160011292</v>
+        <v>0.9988754987716675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6017245054244995</v>
+        <v>0.9159538745880127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8953301310539246</v>
+        <v>0.8792549967765808</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02094004116952419</v>
+        <v>0.01326283439993858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9943627715110779</v>
+        <v>0.997750997543335</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5559781193733215</v>
+        <v>0.8540554046630859</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8965378403663635</v>
+        <v>0.873474657535553</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0164321530610323</v>
+        <v>0.01197338383644819</v>
       </c>
       <c r="C12" t="n">
-        <v>0.995772123336792</v>
+        <v>0.9975903630256653</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6201901435852051</v>
+        <v>0.889994204044342</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8917069435119629</v>
+        <v>0.8798972368240356</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006789816077798605</v>
+        <v>0.007739474065601826</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9980874061584473</v>
+        <v>0.9987148642539978</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6714788675308228</v>
+        <v>1.017291665077209</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8985507488250732</v>
+        <v>0.8754014372825623</v>
       </c>
     </row>
   </sheetData>
